--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1780343333333333</v>
+      </c>
+      <c r="H2">
+        <v>0.534103</v>
+      </c>
+      <c r="I2">
+        <v>0.003649670474736916</v>
+      </c>
+      <c r="J2">
+        <v>0.003649670474736915</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.202688333333333</v>
-      </c>
-      <c r="H2">
-        <v>6.608065</v>
-      </c>
-      <c r="I2">
-        <v>0.194626115952434</v>
-      </c>
-      <c r="J2">
-        <v>0.194626115952434</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N2">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q2">
-        <v>4.593981855208333</v>
+        <v>0.2177291056724444</v>
       </c>
       <c r="R2">
-        <v>41.345836696875</v>
+        <v>1.959561951052</v>
       </c>
       <c r="S2">
-        <v>0.005129833578768431</v>
+        <v>7.601865131316977E-05</v>
       </c>
       <c r="T2">
-        <v>0.005129833578768431</v>
+        <v>7.601865131316978E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H3">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J3">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P3">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q3">
-        <v>21.8809669789211</v>
+        <v>1.768549508266444</v>
       </c>
       <c r="R3">
-        <v>196.92870281029</v>
+        <v>15.916945574398</v>
       </c>
       <c r="S3">
-        <v>0.02443320907267765</v>
+        <v>0.0006174771534736506</v>
       </c>
       <c r="T3">
-        <v>0.02443320907267765</v>
+        <v>0.0006174771534736507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H4">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I4">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J4">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N4">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O4">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P4">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q4">
-        <v>66.093912386455</v>
+        <v>2.584508037841333</v>
       </c>
       <c r="R4">
-        <v>594.8452114780951</v>
+        <v>23.260572340572</v>
       </c>
       <c r="S4">
-        <v>0.07380324559354186</v>
+        <v>0.0009023635803672436</v>
       </c>
       <c r="T4">
-        <v>0.07380324559354184</v>
+        <v>0.0009023635803672436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H5">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I5">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J5">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N5">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q5">
-        <v>34.59329002679721</v>
+        <v>2.179374651872222</v>
       </c>
       <c r="R5">
-        <v>311.339610241175</v>
+        <v>19.61437186685</v>
       </c>
       <c r="S5">
-        <v>0.03862832426696468</v>
+        <v>0.0007609139863490591</v>
       </c>
       <c r="T5">
-        <v>0.03862832426696468</v>
+        <v>0.0007609139863490591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.202688333333333</v>
+        <v>0.1780343333333333</v>
       </c>
       <c r="H6">
-        <v>6.608065</v>
+        <v>0.534103</v>
       </c>
       <c r="I6">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736916</v>
       </c>
       <c r="J6">
-        <v>0.194626115952434</v>
+        <v>0.003649670474736915</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N6">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q6">
-        <v>47.13372629058166</v>
+        <v>3.703056094140666</v>
       </c>
       <c r="R6">
-        <v>424.203536615235</v>
+        <v>33.327504847266</v>
       </c>
       <c r="S6">
-        <v>0.05263150344048135</v>
+        <v>0.001292897103233792</v>
       </c>
       <c r="T6">
-        <v>0.05263150344048134</v>
+        <v>0.001292897103233792</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>14.500353</v>
       </c>
       <c r="I7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J7">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N7">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q7">
-        <v>10.080766241875</v>
+        <v>5.911123679561333</v>
       </c>
       <c r="R7">
-        <v>90.726896176875</v>
+        <v>53.20011311605201</v>
       </c>
       <c r="S7">
-        <v>0.01125660805748666</v>
+        <v>0.002063829034146738</v>
       </c>
       <c r="T7">
-        <v>0.01125660805748666</v>
+        <v>0.002063829034146738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.500353</v>
       </c>
       <c r="I8">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J8">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P8">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q8">
         <v>48.01431964965533</v>
@@ -948,10 +948,10 @@
         <v>432.128876846898</v>
       </c>
       <c r="S8">
-        <v>0.05361481106445361</v>
+        <v>0.01676387643357763</v>
       </c>
       <c r="T8">
-        <v>0.05361481106445361</v>
+        <v>0.01676387643357763</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.500353</v>
       </c>
       <c r="I9">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J9">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N9">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O9">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P9">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q9">
-        <v>145.032632208471</v>
+        <v>70.166763489508</v>
       </c>
       <c r="R9">
-        <v>1305.293689876239</v>
+        <v>631.5008714055721</v>
       </c>
       <c r="S9">
-        <v>0.1619495440271928</v>
+        <v>0.02449825305169397</v>
       </c>
       <c r="T9">
-        <v>0.1619495440271927</v>
+        <v>0.02449825305169397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.500353</v>
       </c>
       <c r="I10">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J10">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N10">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q10">
-        <v>75.90950101428166</v>
+        <v>59.16780428381667</v>
       </c>
       <c r="R10">
-        <v>683.1855091285349</v>
+        <v>532.5102385543501</v>
       </c>
       <c r="S10">
-        <v>0.08476374516132243</v>
+        <v>0.02065804049911447</v>
       </c>
       <c r="T10">
-        <v>0.08476374516132243</v>
+        <v>0.02065804049911447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>14.500353</v>
       </c>
       <c r="I11">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804967</v>
       </c>
       <c r="J11">
-        <v>0.4270762143425078</v>
+        <v>0.09908483984804965</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N11">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q11">
-        <v>103.427504030123</v>
+        <v>100.534205094974</v>
       </c>
       <c r="R11">
-        <v>930.8475362711069</v>
+        <v>904.807845854766</v>
       </c>
       <c r="S11">
-        <v>0.1154915060320524</v>
+        <v>0.03510084082951684</v>
       </c>
       <c r="T11">
-        <v>0.1154915060320524</v>
+        <v>0.03510084082951685</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.63223</v>
+      </c>
+      <c r="H12">
+        <v>106.89669</v>
+      </c>
+      <c r="I12">
+        <v>0.7304540385283456</v>
+      </c>
+      <c r="J12">
+        <v>0.7304540385283456</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>1.031759666666667</v>
-      </c>
-      <c r="H12">
-        <v>3.095279</v>
-      </c>
-      <c r="I12">
-        <v>0.09116467976013157</v>
-      </c>
-      <c r="J12">
-        <v>0.09116467976013157</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
       <c r="M12">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N12">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q12">
-        <v>2.151863754791667</v>
+        <v>43.57683951044</v>
       </c>
       <c r="R12">
-        <v>19.366773793125</v>
+        <v>392.1915555939601</v>
       </c>
       <c r="S12">
-        <v>0.002402861677337734</v>
+        <v>0.01521456011975593</v>
       </c>
       <c r="T12">
-        <v>0.002402861677337734</v>
+        <v>0.01521456011975593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H13">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I13">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J13">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P13">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q13">
-        <v>10.24924809146822</v>
+        <v>353.9618548010599</v>
       </c>
       <c r="R13">
-        <v>92.24323282321399</v>
+        <v>3185.65669320954</v>
       </c>
       <c r="S13">
-        <v>0.01144474198502415</v>
+        <v>0.1235833984399175</v>
       </c>
       <c r="T13">
-        <v>0.01144474198502415</v>
+        <v>0.1235833984399175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H14">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I14">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J14">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N14">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O14">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P14">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q14">
-        <v>30.959002224953</v>
+        <v>517.26980474484</v>
       </c>
       <c r="R14">
-        <v>278.631020024577</v>
+        <v>4655.42824270356</v>
       </c>
       <c r="S14">
-        <v>0.03457012547811389</v>
+        <v>0.1806012696386415</v>
       </c>
       <c r="T14">
-        <v>0.03457012547811388</v>
+        <v>0.1806012696386415</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H15">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I15">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J15">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N15">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q15">
-        <v>16.20381823738944</v>
+        <v>436.1854109695</v>
       </c>
       <c r="R15">
-        <v>145.834364136505</v>
+        <v>3925.668698725501</v>
       </c>
       <c r="S15">
-        <v>0.01809386573962668</v>
+        <v>0.1522911994791634</v>
       </c>
       <c r="T15">
-        <v>0.01809386573962668</v>
+        <v>0.1522911994791634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.031759666666667</v>
+        <v>35.63223</v>
       </c>
       <c r="H16">
-        <v>3.095279</v>
+        <v>106.89669</v>
       </c>
       <c r="I16">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="J16">
-        <v>0.09116467976013157</v>
+        <v>0.7304540385283456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N16">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q16">
-        <v>22.07787501772233</v>
+        <v>741.13876789302</v>
       </c>
       <c r="R16">
-        <v>198.700875159501</v>
+        <v>6670.248911037181</v>
       </c>
       <c r="S16">
-        <v>0.02465308488002913</v>
+        <v>0.2587636108508672</v>
       </c>
       <c r="T16">
-        <v>0.02465308488002912</v>
+        <v>0.2587636108508672</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5521946666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.656584</v>
+      </c>
+      <c r="I17">
+        <v>0.011319887201011</v>
+      </c>
+      <c r="J17">
+        <v>0.011319887201011</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.4219816666666667</v>
-      </c>
-      <c r="H17">
-        <v>1.265945</v>
-      </c>
-      <c r="I17">
-        <v>0.03728564388507135</v>
-      </c>
-      <c r="J17">
-        <v>0.03728564388507136</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N17">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q17">
-        <v>0.8800955135416667</v>
+        <v>0.6753127258062223</v>
       </c>
       <c r="R17">
-        <v>7.920859621875</v>
+        <v>6.077814532256</v>
       </c>
       <c r="S17">
-        <v>0.0009827517086883986</v>
+        <v>0.000235780891451604</v>
       </c>
       <c r="T17">
-        <v>0.0009827517086883988</v>
+        <v>0.000235780891451604</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H18">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I18">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J18">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P18">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q18">
-        <v>4.191862631818888</v>
+        <v>5.485366715038222</v>
       </c>
       <c r="R18">
-        <v>37.72676368637</v>
+        <v>49.368300435344</v>
       </c>
       <c r="S18">
-        <v>0.004680810321858351</v>
+        <v>0.001915178856531407</v>
       </c>
       <c r="T18">
-        <v>0.004680810321858352</v>
+        <v>0.001915178856531407</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H19">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I19">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J19">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N19">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O19">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P19">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q19">
-        <v>12.661990751615</v>
+        <v>8.016159174090667</v>
       </c>
       <c r="R19">
-        <v>113.957916764535</v>
+        <v>72.14543256681601</v>
       </c>
       <c r="S19">
-        <v>0.01413891203293496</v>
+        <v>0.002798788004222201</v>
       </c>
       <c r="T19">
-        <v>0.01413891203293496</v>
+        <v>0.002798788004222201</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H20">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I20">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J20">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N20">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q20">
-        <v>6.627235437752778</v>
+        <v>6.759589776311112</v>
       </c>
       <c r="R20">
-        <v>59.645118939775</v>
+        <v>60.83630798680001</v>
       </c>
       <c r="S20">
-        <v>0.007400250143444806</v>
+        <v>0.002360065259251623</v>
       </c>
       <c r="T20">
-        <v>0.007400250143444807</v>
+        <v>0.002360065259251623</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4219816666666667</v>
+        <v>0.5521946666666667</v>
       </c>
       <c r="H21">
-        <v>1.265945</v>
+        <v>1.656584</v>
       </c>
       <c r="I21">
-        <v>0.03728564388507135</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="J21">
-        <v>0.03728564388507136</v>
+        <v>0.011319887201011</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N21">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q21">
-        <v>9.029678904328334</v>
+        <v>11.48546905120533</v>
       </c>
       <c r="R21">
-        <v>81.267110138955</v>
+        <v>103.369221460848</v>
       </c>
       <c r="S21">
-        <v>0.01008291967814484</v>
+        <v>0.004010074189554166</v>
       </c>
       <c r="T21">
-        <v>0.01008291967814484</v>
+        <v>0.004010074189554167</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.585023666666667</v>
+      </c>
+      <c r="H22">
+        <v>22.755071</v>
+      </c>
+      <c r="I22">
+        <v>0.155491563947857</v>
+      </c>
+      <c r="J22">
+        <v>0.1554915639478569</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="L22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G22">
-        <v>2.827656666666666</v>
-      </c>
-      <c r="H22">
-        <v>8.48297</v>
-      </c>
-      <c r="I22">
-        <v>0.2498473460598554</v>
-      </c>
-      <c r="J22">
-        <v>0.2498473460598555</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
       <c r="M22">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N22">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q22">
-        <v>5.897431435416665</v>
+        <v>9.276190656751556</v>
       </c>
       <c r="R22">
-        <v>53.07688291875</v>
+        <v>83.48571591076401</v>
       </c>
       <c r="S22">
-        <v>0.006585320264507876</v>
+        <v>0.003238719512819478</v>
       </c>
       <c r="T22">
-        <v>0.006585320264507877</v>
+        <v>0.003238719512819478</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H23">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I23">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J23">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>29.801266</v>
       </c>
       <c r="O23">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P23">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q23">
-        <v>28.08924949333555</v>
+        <v>75.34776930220956</v>
       </c>
       <c r="R23">
-        <v>252.80324544002</v>
+        <v>678.1299237198859</v>
       </c>
       <c r="S23">
-        <v>0.0313656387410312</v>
+        <v>0.02630716634838377</v>
       </c>
       <c r="T23">
-        <v>0.0313656387410312</v>
+        <v>0.02630716634838378</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H24">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I24">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J24">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N24">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O24">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P24">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q24">
-        <v>84.84672532079</v>
+        <v>110.1110907468227</v>
       </c>
       <c r="R24">
-        <v>763.6205278871101</v>
+        <v>990.999816721404</v>
       </c>
       <c r="S24">
-        <v>0.09474342614254669</v>
+        <v>0.03844454597534715</v>
       </c>
       <c r="T24">
-        <v>0.09474342614254669</v>
+        <v>0.03844454597534715</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H25">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I25">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J25">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N25">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q25">
-        <v>44.4084374924611</v>
+        <v>92.8506766278278</v>
       </c>
       <c r="R25">
-        <v>399.67593743215</v>
+        <v>835.6560896504501</v>
       </c>
       <c r="S25">
-        <v>0.04958833121449824</v>
+        <v>0.03241818859707935</v>
       </c>
       <c r="T25">
-        <v>0.04958833121449825</v>
+        <v>0.03241818859707935</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>2.827656666666666</v>
+        <v>7.585023666666667</v>
       </c>
       <c r="H26">
-        <v>8.48297</v>
+        <v>22.755071</v>
       </c>
       <c r="I26">
-        <v>0.2498473460598554</v>
+        <v>0.155491563947857</v>
       </c>
       <c r="J26">
-        <v>0.2498473460598555</v>
+        <v>0.1554915639478569</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N26">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q26">
-        <v>60.50696930360333</v>
+        <v>157.7660195489513</v>
       </c>
       <c r="R26">
-        <v>544.56272373243</v>
+        <v>1419.894175940562</v>
       </c>
       <c r="S26">
-        <v>0.06756462969727145</v>
+        <v>0.05508294351422718</v>
       </c>
       <c r="T26">
-        <v>0.06756462969727144</v>
+        <v>0.05508294351422719</v>
       </c>
     </row>
   </sheetData>
